--- a/Day 2.xlsx
+++ b/Day 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rickesh\Desktop\Advent Of Code 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rickesh\Documents\GitHub\AdventOfCode_2023_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B276D1EB-F97B-49AE-A55A-0940EDDD7A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472A1FE5-8D07-46AC-93D6-DCF851398D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9680" yWindow="4970" windowWidth="19870" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -708,14 +708,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="123.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="54.26953125" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9266,7 +9266,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C130" si="4">_xlfn.TEXTAFTER(A67,":")</f>
+        <f t="shared" ref="C67:C101" si="4">_xlfn.TEXTAFTER(A67,":")</f>
         <v xml:space="preserve"> 15 blue, 5 green; 4 red, 9 blue; 6 green, 15 blue, 1 red; 8 green, 8 red, 6 blue; 17 blue, 4 red, 6 green; 14 blue, 8 green, 7 red</v>
       </c>
       <c r="D67" cm="1">
